--- a/database/_legacy-data/stadiums.xlsx
+++ b/database/_legacy-data/stadiums.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="28740" windowHeight="14550"/>
+    <workbookView xWindow="2070" yWindow="0" windowWidth="28740" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stadiums" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -57,9 +57,6 @@
     <t>http://maps.google.de/maps?q=heinrich-heine-universit%C3%A4t,+hochschulsportreferat&amp;hl=de&amp;ie=UTF8&amp;ll=51.191757,6.801138&amp;spn=0.006428,0.014377&amp;sll=51.191259,6.79985&amp;sspn=0.006428,0.014377&amp;vpsrc=6&amp;hq=heinrich-heine-universit%C3%A4t,+hochschulsportreferat&amp;t=h&amp;z=17&amp;iwloc=A</t>
   </si>
   <si>
-    <t>Der Rasenplatz der UniversitÃ¤t darf nicht mit Schraubstollen betreten werden.</t>
-  </si>
-  <si>
     <t>SG Benrath - Hassels 1910/12 e.V.</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
     <t>https://maps.google.de/maps?q=Grazer+Stra%C3%9Fe,+Baumberg,+Monheim+am+Rhein&amp;hl=de&amp;ie=UTF8&amp;ll=51.118677,6.906463&amp;spn=0.006405,0.016512&amp;sll=51.118772,6.903641&amp;sspn=0.012809,0.033023&amp;oq=grazer+stra%C3%9Fe+baumber&amp;t=h&amp;hnear=Grazer+Stra%C3%9Fe,+Baumberg+40789+Monheim+am+Rhein,+D%C3%BCsseldorf,+Nordrhein-Westfalen&amp;z=17</t>
   </si>
   <si>
-    <t>Grazer StraÃŸe ganz durchfahren</t>
-  </si>
-  <si>
     <t>DJK Sport Club Flingern 08 e.V.</t>
   </si>
   <si>
@@ -355,12 +349,48 @@
   </si>
   <si>
     <t>long</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>ESV Blau-Weiss 1926 e.V. Düsseldorf</t>
+  </si>
+  <si>
+    <t>BW Flingern</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/f15hGCgFQqy</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Der Rasenplatz der Universität darf nicht mit Schraubstollen betreten werden.</t>
+  </si>
+  <si>
+    <t>Grazer Straße ganz durchfahren</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/KbD6XC1VKcB2</t>
+  </si>
+  <si>
+    <t>Krefeld</t>
+  </si>
+  <si>
+    <t>S.C. Viktoria 09 e.V.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -838,11 +868,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1197,11 +1228,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,9 +1243,10 @@
     <col min="4" max="4" width="70.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="72.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1228,10 +1260,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1239,8 +1271,14 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1253,11 +1291,28 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" t="s">
+        <v>115</v>
+      </c>
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="I2" s="2">
+        <f ca="1">NOW()</f>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J2" s="2">
+        <f ca="1">NOW()</f>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1270,575 +1325,1213 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" t="s">
+        <v>115</v>
+      </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:J37" ca="1" si="0">NOW()</f>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" t="s">
+        <v>115</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="I4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
+      <c r="E5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" t="s">
+        <v>115</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" t="s">
+        <v>115</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="I6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" t="s">
+        <v>115</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="I7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="I8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" t="s">
+        <v>115</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="I9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>115</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
+      <c r="E11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>115</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="I11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>115</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="I12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>43</v>
+      <c r="E13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>115</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="I13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>46</v>
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" t="s">
+        <v>115</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>49</v>
+      <c r="E15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" t="s">
+        <v>115</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>52</v>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" t="s">
+        <v>115</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
         <v>53</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>55</v>
+      <c r="E17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" t="s">
+        <v>115</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" t="s">
+        <v>115</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="I18" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
         <v>57</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>59</v>
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" t="s">
+        <v>115</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="I19" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
         <v>60</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>62</v>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" t="s">
+        <v>115</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="I20" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
         <v>63</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>65</v>
+      <c r="E21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" t="s">
+        <v>115</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I21" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
         <v>66</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>68</v>
+      <c r="E22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" t="s">
+        <v>115</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="I22" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
         <v>69</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>71</v>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" t="s">
+        <v>115</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="I23" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
         <v>72</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>74</v>
+      <c r="E24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" t="s">
+        <v>115</v>
       </c>
       <c r="G24" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I24" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>78</v>
+      <c r="E25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" t="s">
+        <v>115</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" t="s">
+        <v>115</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="I26" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>83</v>
+      <c r="E27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" t="s">
+        <v>115</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I27" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>86</v>
+      <c r="E28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" t="s">
+        <v>115</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="I28" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>89</v>
+      <c r="E29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" t="s">
+        <v>115</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="I29" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>92</v>
+      <c r="E30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" t="s">
+        <v>115</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I30" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
+      </c>
+      <c r="E31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" t="s">
+        <v>115</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="I31" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>97</v>
+      <c r="E32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" t="s">
+        <v>115</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I32" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>100</v>
+      <c r="E33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" t="s">
+        <v>115</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I33" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>103</v>
+      <c r="E34" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" t="s">
+        <v>115</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>106</v>
+      <c r="E35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" t="s">
+        <v>115</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>109</v>
+      <c r="E36" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36" t="s">
+        <v>115</v>
       </c>
       <c r="H36">
         <v>1</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117.949583912035</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" t="s">
+        <v>115</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" ref="I38:J38" ca="1" si="1">NOW()</f>
+        <v>43117.949583912035</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43117.949583912035</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/_legacy-data/stadiums.xlsx
+++ b/database/_legacy-data/stadiums.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="0" windowWidth="28740" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="0" windowWidth="28740" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stadiums" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="124">
   <si>
     <t>id</t>
   </si>
@@ -378,10 +378,19 @@
     <t>https://goo.gl/maps/KbD6XC1VKcB2</t>
   </si>
   <si>
-    <t>Krefeld</t>
-  </si>
-  <si>
     <t>S.C. Viktoria 09 e.V.</t>
+  </si>
+  <si>
+    <t>Vikt. Krefeld</t>
+  </si>
+  <si>
+    <t>VfR Krefeld 1920 e.V.</t>
+  </si>
+  <si>
+    <t>VfR Krefeld</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/nFYDPTdWDCT2</t>
   </si>
 </sst>
 </file>
@@ -1229,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37:J38"/>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,11 +1314,11 @@
       </c>
       <c r="I2" s="2">
         <f ca="1">NOW()</f>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J2" s="2">
         <f ca="1">NOW()</f>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1339,11 +1348,11 @@
       </c>
       <c r="I3" s="2">
         <f t="shared" ref="I3:J37" ca="1" si="0">NOW()</f>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1373,11 +1382,11 @@
       </c>
       <c r="I4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1407,11 +1416,11 @@
       </c>
       <c r="I5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1441,11 +1450,11 @@
       </c>
       <c r="I6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1475,11 +1484,11 @@
       </c>
       <c r="I7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -1509,11 +1518,11 @@
       </c>
       <c r="I8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -1543,11 +1552,11 @@
       </c>
       <c r="I9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -1577,11 +1586,11 @@
       </c>
       <c r="I10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1611,11 +1620,11 @@
       </c>
       <c r="I11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1645,11 +1654,11 @@
       </c>
       <c r="I12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1679,11 +1688,11 @@
       </c>
       <c r="I13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1713,11 +1722,11 @@
       </c>
       <c r="I14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1747,11 +1756,11 @@
       </c>
       <c r="I15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1781,11 +1790,11 @@
       </c>
       <c r="I16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1815,11 +1824,11 @@
       </c>
       <c r="I17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1846,11 +1855,11 @@
       </c>
       <c r="I18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -1880,11 +1889,11 @@
       </c>
       <c r="I19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -1914,11 +1923,11 @@
       </c>
       <c r="I20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -1948,11 +1957,11 @@
       </c>
       <c r="I21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1982,11 +1991,11 @@
       </c>
       <c r="I22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -2016,11 +2025,11 @@
       </c>
       <c r="I23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -2050,11 +2059,11 @@
       </c>
       <c r="I24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2084,11 +2093,11 @@
       </c>
       <c r="I25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2115,11 +2124,11 @@
       </c>
       <c r="I26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -2149,11 +2158,11 @@
       </c>
       <c r="I27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2183,11 +2192,11 @@
       </c>
       <c r="I28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -2217,11 +2226,11 @@
       </c>
       <c r="I29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2251,11 +2260,11 @@
       </c>
       <c r="I30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2285,11 +2294,11 @@
       </c>
       <c r="I31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2319,11 +2328,11 @@
       </c>
       <c r="I32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2353,11 +2362,11 @@
       </c>
       <c r="I33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2387,11 +2396,11 @@
       </c>
       <c r="I34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2421,11 +2430,11 @@
       </c>
       <c r="I35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2455,11 +2464,11 @@
       </c>
       <c r="I36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2489,11 +2498,11 @@
       </c>
       <c r="I37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2501,10 +2510,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" t="s">
         <v>120</v>
-      </c>
-      <c r="C38" t="s">
-        <v>119</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>118</v>
@@ -2522,12 +2531,46 @@
         <v>1</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" ref="I38:J38" ca="1" si="1">NOW()</f>
-        <v>43117.949583912035</v>
+        <f t="shared" ref="I38:J39" ca="1" si="1">NOW()</f>
+        <v>43130.890112037036</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43117.949583912035</v>
+        <v>43130.890112037036</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F39" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43130.890112037036</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43130.890112037036</v>
       </c>
     </row>
   </sheetData>
